--- a/张蕴东/A7/A7data.xlsx
+++ b/张蕴东/A7/A7data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wang\共享文件\Better-Fundamentals-of-Materials-Science\张蕴东\A7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE78DE36-DFF6-47A6-ADC3-80F7167796C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACF4491-6B64-4FA0-80F7-D77298ECFF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="684" yWindow="2904" windowWidth="15336" windowHeight="10572" xr2:uid="{952B7800-7531-4641-9691-FD0CD6534FDD}"/>
+    <workbookView xWindow="15264" yWindow="6084" windowWidth="15336" windowHeight="10572" xr2:uid="{952B7800-7531-4641-9691-FD0CD6534FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>平均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,70 @@
   </si>
   <si>
     <t>使用斜探头探测待测试块内部缺陷位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xA/mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tA/us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xB/mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tB/us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xD/mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tD/us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theta1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theta2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,6 +212,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +417,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD31777B-E6D4-422E-9E87-F6AECEE6677A}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -676,7 +761,7 @@
     <col min="1" max="7" width="10.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
@@ -687,7 +772,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>1</v>
@@ -707,22 +792,39 @@
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="e">
+      <c r="B3" s="13">
+        <v>1.58</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1.58</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="G3" s="7">
         <f>AVERAGE(B3:F3)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.5919999999999999</v>
+      </c>
+      <c r="I3">
+        <f>4/G3</f>
+        <v>2.512562814070352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -731,7 +833,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -742,7 +844,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -762,36 +864,77 @@
       <c r="G6" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4" t="e">
+      <c r="B7" s="14">
+        <v>14.5</v>
+      </c>
+      <c r="C7" s="14">
+        <v>14.5</v>
+      </c>
+      <c r="D7" s="14">
+        <v>14.5</v>
+      </c>
+      <c r="E7" s="14">
+        <v>14.6</v>
+      </c>
+      <c r="F7" s="14">
+        <v>14.5</v>
+      </c>
+      <c r="G7" s="4">
         <f>AVERAGE(B7:F7)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14.52</v>
+      </c>
+      <c r="I7">
+        <f>2*G7-G8</f>
+        <v>0.27999999999999758</v>
+      </c>
+      <c r="J7">
+        <f>2*45/(G8-G7)</f>
+        <v>6.3202247191011232</v>
+      </c>
+      <c r="K7">
+        <f>J7/I$3</f>
+        <v>2.5154494382022468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7" t="e">
+      <c r="B8" s="15">
+        <v>28.7</v>
+      </c>
+      <c r="C8" s="15">
+        <v>28.8</v>
+      </c>
+      <c r="D8" s="15">
+        <v>28.7</v>
+      </c>
+      <c r="E8" s="15">
+        <v>28.8</v>
+      </c>
+      <c r="F8" s="15">
+        <v>28.8</v>
+      </c>
+      <c r="G8" s="7">
         <f>AVERAGE(B8:F8)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -800,7 +943,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -811,7 +954,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3">
         <v>1</v>
@@ -831,50 +974,108 @@
       <c r="G11" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4" t="e">
+      <c r="B12" s="14">
+        <v>23.3</v>
+      </c>
+      <c r="C12" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="D12" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="E12" s="14">
+        <v>23.6</v>
+      </c>
+      <c r="F12" s="14">
+        <v>23.3</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" ref="G12:G14" si="0">AVERAGE(B12:F12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23.44</v>
+      </c>
+      <c r="I12" s="17">
+        <f>2*G12-G13</f>
+        <v>4.3000000000000043</v>
+      </c>
+      <c r="J12">
+        <f>2*30/(G13-G12)</f>
+        <v>3.1347962382445145</v>
+      </c>
+      <c r="K12">
+        <f>J12/I$3</f>
+        <v>1.2476489028213167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4" t="e">
+      <c r="B13" s="14">
+        <v>42.7</v>
+      </c>
+      <c r="C13" s="14">
+        <v>42.9</v>
+      </c>
+      <c r="D13" s="14">
+        <v>42.5</v>
+      </c>
+      <c r="E13" s="14">
+        <v>42.6</v>
+      </c>
+      <c r="F13" s="14">
+        <v>42.2</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42.58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7" t="e">
+      <c r="B14" s="13">
+        <v>12.55</v>
+      </c>
+      <c r="C14" s="13">
+        <v>12.55</v>
+      </c>
+      <c r="D14" s="13">
+        <v>12.55</v>
+      </c>
+      <c r="E14" s="13">
+        <v>13</v>
+      </c>
+      <c r="F14" s="13">
+        <v>13</v>
+      </c>
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12.73</v>
+      </c>
+      <c r="I14">
+        <f>30-G14</f>
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -883,239 +1084,417 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="2:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4" t="e">
-        <f>AVERAGE(C18:E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B18" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>27.6</v>
+      </c>
+      <c r="G18" s="4">
+        <f>AVERAGE(B18:F18)</f>
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4" t="e">
-        <f t="shared" ref="F19:F21" si="1">AVERAGE(C19:E19)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B19" s="3">
+        <v>86.5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>86.5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>86.6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>86.6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>86.5</v>
+      </c>
+      <c r="G19" s="4">
+        <f>AVERAGE(B19:F19)</f>
+        <v>86.54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
+      <c r="B20" s="3">
+        <v>30.1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3">
+        <v>30</v>
+      </c>
+      <c r="F20" s="3">
+        <v>30.1</v>
+      </c>
+      <c r="G20" s="4">
+        <f>AVERAGE(B20:F20)</f>
+        <v>30.04</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="C21" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="D21" s="6">
+        <v>29.6</v>
+      </c>
+      <c r="E21" s="6">
+        <v>29.6</v>
+      </c>
+      <c r="F21" s="6">
+        <v>29.6</v>
+      </c>
+      <c r="G21" s="7">
+        <f>AVERAGE(B21:F21)</f>
+        <v>29.559999999999995</v>
+      </c>
+      <c r="I21">
+        <f>DEGREES(ATAN((G19-G18-G20)/G21))</f>
+        <v>44.432346006061174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="2:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="2:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
       <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="14">
+        <v>44.5</v>
+      </c>
+      <c r="C25" s="14">
+        <v>44.5</v>
+      </c>
+      <c r="D25" s="14">
+        <v>44.7</v>
+      </c>
+      <c r="E25" s="14">
+        <v>44.5</v>
+      </c>
+      <c r="F25" s="14">
+        <v>44.5</v>
+      </c>
+      <c r="G25" s="4">
+        <f>AVERAGE(B25:F25)</f>
+        <v>44.54</v>
+      </c>
+      <c r="I25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="14">
+        <v>34</v>
+      </c>
+      <c r="C26" s="14">
+        <v>34.1</v>
+      </c>
+      <c r="D26" s="14">
+        <v>34.1</v>
+      </c>
+      <c r="E26" s="14">
+        <v>34</v>
+      </c>
+      <c r="F26" s="14">
+        <v>34</v>
+      </c>
+      <c r="G26" s="4">
+        <f>AVERAGE(B26:F26)</f>
+        <v>34.04</v>
+      </c>
+      <c r="I26">
+        <f>DEGREES(2*ATAN((G25-G26)/2/G$20))</f>
+        <v>19.826581023413205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="3">
+      <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="E24" s="3">
+      <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4" t="e">
-        <f t="shared" ref="F25:F26" si="2">AVERAGE(C25:E25)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4" t="e">
-        <f t="shared" ref="F28:F29" si="3">AVERAGE(C28:E28)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
+      <c r="B28" s="14">
+        <v>81.5</v>
+      </c>
+      <c r="C28" s="14">
+        <v>82</v>
+      </c>
+      <c r="D28" s="14">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="E28" s="14">
+        <v>81.7</v>
+      </c>
+      <c r="F28" s="14">
+        <v>82</v>
+      </c>
+      <c r="G28" s="4">
+        <f>AVERAGE(B28:F28)</f>
+        <v>81.820000000000007</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="15">
+        <v>93.9</v>
+      </c>
+      <c r="C29" s="15">
+        <v>93.5</v>
+      </c>
+      <c r="D29" s="15">
+        <v>94</v>
+      </c>
+      <c r="E29" s="15">
+        <v>94</v>
+      </c>
+      <c r="F29" s="15">
+        <v>93.7</v>
+      </c>
+      <c r="G29" s="7">
+        <f>AVERAGE(B29:F29)</f>
+        <v>93.82</v>
+      </c>
+      <c r="I29">
+        <f>DEGREES(2*ATAN((G28-G29)/2/G$20)*COS(I21)*COS(I21))</f>
+        <v>-18.315641732664872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="2:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="2:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
       <c r="C32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>3</v>
-      </c>
-      <c r="F32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4" t="e">
-        <f t="shared" ref="F33:F34" si="4">AVERAGE(C33:E33)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="5" t="s">
+      <c r="B33" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="G33" s="4">
+        <f>AVERAGE(B33:F33)</f>
+        <v>0.08</v>
+      </c>
+      <c r="I33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="C34" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="G34" s="7">
+        <f>AVERAGE(B34:F34)</f>
+        <v>14.14</v>
+      </c>
+      <c r="I34">
+        <f>J7*(G34-G33)/2</f>
+        <v>44.431179775280896</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>26</v>
       </c>
@@ -1126,7 +1505,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3">
         <v>1</v>
@@ -1147,144 +1526,258 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4" t="e">
-        <f t="shared" ref="G38:G47" si="5">AVERAGE(B38:F38)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B38" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="C38" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="D38" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="E38" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="F38" s="14">
+        <v>27.6</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" ref="G38:G47" si="1">AVERAGE(B38:F38)</f>
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="B39" s="14">
+        <v>23.3</v>
+      </c>
+      <c r="C39" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="D39" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="E39" s="14">
+        <v>23.6</v>
+      </c>
+      <c r="F39" s="14">
+        <v>23.3</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="1"/>
+        <v>23.44</v>
+      </c>
+      <c r="I39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B40" s="14">
+        <v>86.5</v>
+      </c>
+      <c r="C40" s="14">
+        <v>86.5</v>
+      </c>
+      <c r="D40" s="14">
+        <v>86.6</v>
+      </c>
+      <c r="E40" s="14">
+        <v>86.6</v>
+      </c>
+      <c r="F40" s="14">
+        <v>86.5</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="1"/>
+        <v>86.54</v>
+      </c>
+      <c r="I40">
+        <f>J12*(G43-6.93)*COS(I21)/2</f>
+        <v>37.414246554413943</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B41" s="14">
+        <v>51.6</v>
+      </c>
+      <c r="C41" s="14">
+        <v>51.5</v>
+      </c>
+      <c r="D41" s="14">
+        <v>52</v>
+      </c>
+      <c r="E41" s="14">
+        <v>51.8</v>
+      </c>
+      <c r="F41" s="14">
+        <v>51.9</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="1"/>
+        <v>51.759999999999991</v>
+      </c>
+      <c r="I41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="B42" s="14">
+        <v>109.7</v>
+      </c>
+      <c r="C42" s="14">
+        <v>109.9</v>
+      </c>
+      <c r="D42" s="14">
+        <v>108.9</v>
+      </c>
+      <c r="E42" s="14">
+        <v>109.5</v>
+      </c>
+      <c r="F42" s="14">
+        <v>109.5</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="1"/>
+        <v>109.5</v>
+      </c>
+      <c r="I42">
+        <f>G42+I14-I40*TAN(I21)</f>
+        <v>108.69460419243204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B43" s="14">
+        <v>33.4</v>
+      </c>
+      <c r="C43" s="14">
+        <v>33.4</v>
+      </c>
+      <c r="D43" s="14">
+        <v>33.4</v>
+      </c>
+      <c r="E43" s="14">
+        <v>33.6</v>
+      </c>
+      <c r="F43" s="14">
+        <v>33.4</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="1"/>
+        <v>33.44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="14">
+        <v>20</v>
+      </c>
+      <c r="C44" s="14">
+        <v>20</v>
+      </c>
+      <c r="D44" s="14">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E44" s="14">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F44" s="14">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="1"/>
+        <v>19.939999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="14">
+        <v>50.2</v>
+      </c>
+      <c r="C45" s="14">
+        <v>50</v>
+      </c>
+      <c r="D45" s="14">
+        <v>50</v>
+      </c>
+      <c r="E45" s="14">
+        <v>50</v>
+      </c>
+      <c r="F45" s="14">
+        <v>49.8</v>
+      </c>
+      <c r="G45" s="16">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="C46" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="D46" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="E46" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="F46" s="14">
+        <v>27.6</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="1"/>
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="B47" s="15">
+        <v>86.5</v>
+      </c>
+      <c r="C47" s="15">
+        <v>86.5</v>
+      </c>
+      <c r="D47" s="15">
+        <v>86.6</v>
+      </c>
+      <c r="E47" s="15">
+        <v>86.6</v>
+      </c>
+      <c r="F47" s="15">
+        <v>86.5</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="1"/>
+        <v>86.54</v>
       </c>
     </row>
   </sheetData>
@@ -1293,9 +1786,9 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
